--- a/Assembly Guide/Bill_of_Materials.xlsx
+++ b/Assembly Guide/Bill_of_Materials.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3125DC7E-204C-4F94-96A4-F026D51D6B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A699A94-1F75-4368-8419-F5141E545B5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="289">
   <si>
     <t>https://www.dfrobot.com/product-121.html</t>
   </si>
@@ -840,12 +840,6 @@
     <t>https://www.amazon.com/uxcell-Miniature-Flange-Bearings-Shielded/dp/B07SLZGZW5</t>
   </si>
   <si>
-    <t>https://www.mcmaster.com/1174K52/</t>
-  </si>
-  <si>
-    <t>1174K52</t>
-  </si>
-  <si>
     <t>OBMP-FDH-1760</t>
   </si>
   <si>
@@ -910,6 +904,30 @@
   </si>
   <si>
     <t>Unit Price/ USD</t>
+  </si>
+  <si>
+    <t>https://www.mcmaster.com/1265K17/</t>
+  </si>
+  <si>
+    <t>1265K17</t>
+  </si>
+  <si>
+    <t>https://www.mcmaster.com/1265K37/</t>
+  </si>
+  <si>
+    <t>Rotary Shaft, 316 Stainless Steel, 4 mm Diameter, 200 mm Long</t>
+  </si>
+  <si>
+    <t>1265K37</t>
+  </si>
+  <si>
+    <t>https://www.mcmaster.com/1265K44/</t>
+  </si>
+  <si>
+    <t>Rotary Shaft, 316 Stainless Steel, 5 mm Diameter, 200 mm Long</t>
+  </si>
+  <si>
+    <t>1265K44</t>
   </si>
 </sst>
 </file>
@@ -1062,7 +1080,7 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1085,7 +1103,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="4" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
@@ -1371,10 +1388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G121"/>
+  <dimension ref="A1:G123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1384,7 +1401,7 @@
     <col min="3" max="3" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="39" style="14" customWidth="1"/>
+    <col min="6" max="6" width="39" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1398,10 +1415,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F1" s="13" t="s">
         <v>3</v>
@@ -1415,7 +1432,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C2">
         <v>6</v>
@@ -1427,7 +1444,7 @@
         <f>C2*D2</f>
         <v>1554</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1436,7 +1453,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -1448,7 +1465,7 @@
         <f>C3*D3</f>
         <v>1190</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1469,7 +1486,7 @@
         <f>C5*D5</f>
         <v>859.8</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1490,7 +1507,7 @@
         <f>C7*D7</f>
         <v>2970</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1511,7 +1528,7 @@
         <f t="shared" ref="E9:E12" si="0">C9*D9</f>
         <v>496.3</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1532,7 +1549,7 @@
         <f t="shared" si="0"/>
         <v>2.73</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1553,7 +1570,7 @@
         <f t="shared" si="0"/>
         <v>7.8000000000000007</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1574,7 +1591,7 @@
         <f t="shared" si="0"/>
         <v>2.4500000000000002</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1595,7 +1612,7 @@
         <f>C14*D14</f>
         <v>119.95</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1614,7 +1631,7 @@
         <f>D16*C16</f>
         <v>24</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F16" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1632,7 +1649,7 @@
         <f t="shared" ref="E17:E19" si="1">D17*C17</f>
         <v>975</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1650,7 +1667,7 @@
         <f t="shared" si="1"/>
         <v>659.80000000000007</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F18" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1668,7 +1685,7 @@
         <f t="shared" si="1"/>
         <v>124.94999999999999</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F19" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1689,7 +1706,7 @@
         <f>C21*D21</f>
         <v>31.2</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="F21" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1710,7 +1727,7 @@
         <f>C23*D23</f>
         <v>79.8</v>
       </c>
-      <c r="F23" s="14" t="s">
+      <c r="F23" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1731,7 +1748,7 @@
         <f>C25*D25</f>
         <v>14.399999999999999</v>
       </c>
-      <c r="F25" s="14" t="s">
+      <c r="F25" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1752,7 +1769,7 @@
         <f>C26*D26</f>
         <v>13</v>
       </c>
-      <c r="F26" s="14" t="s">
+      <c r="F26" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1773,7 +1790,7 @@
         <f>C27*D27</f>
         <v>30.16</v>
       </c>
-      <c r="F27" s="14" t="s">
+      <c r="F27" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1794,7 +1811,7 @@
         <f t="shared" ref="E29:E31" si="2">C29*D29</f>
         <v>37.700000000000003</v>
       </c>
-      <c r="F29" s="14" t="s">
+      <c r="F29" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1815,7 +1832,7 @@
         <f t="shared" si="2"/>
         <v>8.1999999999999993</v>
       </c>
-      <c r="F30" s="14" t="s">
+      <c r="F30" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1836,7 +1853,7 @@
         <f t="shared" si="2"/>
         <v>31.44</v>
       </c>
-      <c r="F31" s="14" t="s">
+      <c r="F31" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1857,7 +1874,7 @@
         <f t="shared" ref="E33:E34" si="3">C33*D33</f>
         <v>64.679999999999993</v>
       </c>
-      <c r="F33" s="14" t="s">
+      <c r="F33" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1878,7 +1895,7 @@
         <f t="shared" si="3"/>
         <v>22.34</v>
       </c>
-      <c r="F34" s="14" t="s">
+      <c r="F34" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1899,7 +1916,7 @@
         <f>C35*D35</f>
         <v>25.56</v>
       </c>
-      <c r="F35" s="14" t="s">
+      <c r="F35" t="s">
         <v>118</v>
       </c>
       <c r="G35" t="s">
@@ -1920,692 +1937,704 @@
         <v>10.71</v>
       </c>
       <c r="E36">
-        <f t="shared" ref="E36" si="4">C36*D36</f>
+        <f t="shared" ref="E36:E38" si="4">C36*D36</f>
         <v>21.42</v>
       </c>
-      <c r="F36" s="14" t="s">
+      <c r="F36" t="s">
         <v>97</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>284</v>
+      </c>
+      <c r="B37" t="s">
+        <v>285</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>19.11</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="4"/>
+        <v>19.11</v>
+      </c>
+      <c r="F37" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
+        <v>287</v>
+      </c>
+      <c r="B38" t="s">
+        <v>288</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>23.9</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="4"/>
+        <v>23.9</v>
+      </c>
+      <c r="F38" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
         <v>92</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B40" t="s">
         <v>93</v>
       </c>
-      <c r="C38">
+      <c r="C40">
         <v>4</v>
       </c>
-      <c r="D38">
+      <c r="D40">
         <v>9.9700000000000006</v>
-      </c>
-      <c r="E38">
-        <f>C38*D38</f>
-        <v>39.880000000000003</v>
-      </c>
-      <c r="F38" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G38" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" t="s">
-        <v>104</v>
-      </c>
-      <c r="B39" t="s">
-        <v>105</v>
-      </c>
-      <c r="C39">
-        <v>3</v>
-      </c>
-      <c r="D39">
-        <v>26.32</v>
-      </c>
-      <c r="E39">
-        <f>C39*D39</f>
-        <v>78.960000000000008</v>
-      </c>
-      <c r="F39" s="15" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="30">
-      <c r="A40" t="s">
-        <v>165</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C40">
-        <v>2</v>
-      </c>
-      <c r="D40">
-        <v>5.39</v>
       </c>
       <c r="E40">
         <f>C40*D40</f>
-        <v>10.78</v>
-      </c>
-      <c r="F40" s="15" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>39.880000000000003</v>
+      </c>
+      <c r="F40" t="s">
+        <v>91</v>
+      </c>
+      <c r="G40" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>104</v>
+      </c>
+      <c r="B41" t="s">
+        <v>105</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41">
+        <v>26.32</v>
+      </c>
+      <c r="E41">
+        <f>C41*D41</f>
+        <v>78.960000000000008</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="30">
       <c r="A42" t="s">
-        <v>60</v>
-      </c>
-      <c r="B42" t="s">
-        <v>276</v>
+        <v>165</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>164</v>
       </c>
       <c r="C42">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42">
-        <v>31.68</v>
+        <v>5.39</v>
       </c>
       <c r="E42">
         <f>C42*D42</f>
+        <v>10.78</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" t="s">
+        <v>274</v>
+      </c>
+      <c r="C44">
+        <v>4</v>
+      </c>
+      <c r="D44">
+        <v>31.68</v>
+      </c>
+      <c r="E44">
+        <f t="shared" ref="E44:E49" si="5">C44*D44</f>
         <v>126.72</v>
       </c>
-      <c r="F42" s="14" t="s">
+      <c r="F44" t="s">
         <v>59</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G44" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
-      <c r="A43" t="s">
-        <v>277</v>
-      </c>
-      <c r="B43" t="s">
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>275</v>
+      </c>
+      <c r="B45" t="s">
         <v>95</v>
       </c>
-      <c r="C43">
+      <c r="C45">
         <v>13</v>
       </c>
-      <c r="D43">
+      <c r="D45">
         <f>14.99/10</f>
         <v>1.4990000000000001</v>
       </c>
-      <c r="E43">
-        <f>C43*D43</f>
+      <c r="E45">
+        <f t="shared" si="5"/>
         <v>19.487000000000002</v>
       </c>
-      <c r="F43" s="15" t="s">
+      <c r="F45" s="14" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
-      <c r="A44" t="s">
-        <v>278</v>
-      </c>
-      <c r="B44" t="s">
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>276</v>
+      </c>
+      <c r="B46" t="s">
         <v>101</v>
       </c>
-      <c r="C44">
+      <c r="C46">
         <v>3</v>
       </c>
-      <c r="D44">
+      <c r="D46">
         <f>6.49/4</f>
         <v>1.6225000000000001</v>
       </c>
-      <c r="E44">
-        <f>C44*D44</f>
+      <c r="E46">
+        <f t="shared" si="5"/>
         <v>4.8674999999999997</v>
       </c>
-      <c r="F44" s="14" t="s">
+      <c r="F46" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
-      <c r="A45" t="s">
-        <v>279</v>
-      </c>
-      <c r="B45" t="s">
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>277</v>
+      </c>
+      <c r="B47" t="s">
         <v>102</v>
       </c>
-      <c r="C45">
+      <c r="C47">
         <v>18</v>
       </c>
-      <c r="D45">
+      <c r="D47">
         <f>12.49/10</f>
         <v>1.2490000000000001</v>
       </c>
-      <c r="E45">
-        <f>C45*D45</f>
+      <c r="E47">
+        <f t="shared" si="5"/>
         <v>22.482000000000003</v>
       </c>
-      <c r="F45" s="14" t="s">
+      <c r="F47" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15" customHeight="1">
-      <c r="A46" t="s">
-        <v>280</v>
-      </c>
-      <c r="B46" t="s">
+    <row r="48" spans="1:7" ht="15" customHeight="1">
+      <c r="A48" t="s">
+        <v>278</v>
+      </c>
+      <c r="B48" t="s">
         <v>158</v>
       </c>
-      <c r="C46">
+      <c r="C48">
         <v>7</v>
       </c>
-      <c r="D46">
+      <c r="D48">
         <v>24.02</v>
       </c>
-      <c r="E46">
-        <f>C46*D46</f>
+      <c r="E48">
+        <f t="shared" si="5"/>
         <v>168.14</v>
       </c>
-      <c r="F46" s="14" t="s">
+      <c r="F48" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
-      <c r="A47" t="s">
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
         <v>160</v>
       </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47">
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
         <v>25.99</v>
       </c>
-      <c r="E47">
-        <f>C47*D47</f>
+      <c r="E49">
+        <f t="shared" si="5"/>
         <v>25.99</v>
       </c>
-      <c r="F47" s="14" t="s">
+      <c r="F49" t="s">
         <v>159</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G49" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
-      <c r="A48" t="s">
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
         <v>116</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B50" t="s">
         <v>117</v>
       </c>
-      <c r="C48">
-        <v>2</v>
-      </c>
-      <c r="D48">
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50">
         <v>14.21</v>
       </c>
-      <c r="E48">
-        <f t="shared" ref="E48" si="5">C48*D48</f>
+      <c r="E50">
+        <f t="shared" ref="E50" si="6">C50*D50</f>
         <v>28.42</v>
       </c>
-      <c r="F48" s="15" t="s">
+      <c r="F50" s="14" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
-      <c r="F49" s="15"/>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" t="s">
+    <row r="51" spans="1:7">
+      <c r="F51" s="14"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A52" s="12" t="s">
+    <row r="54" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A54" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="13"/>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" t="s">
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="13"/>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" t="s">
         <v>99</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B55" t="s">
         <v>112</v>
       </c>
-      <c r="C53">
+      <c r="C55">
         <v>9</v>
       </c>
-      <c r="D53">
+      <c r="D55">
         <v>23.25</v>
       </c>
-      <c r="E53">
-        <f t="shared" ref="E53" si="6">C53*D53</f>
+      <c r="E55">
+        <f t="shared" ref="E55" si="7">C55*D55</f>
         <v>209.25</v>
       </c>
-      <c r="F53" s="14" t="s">
+      <c r="F55" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
-      <c r="A54" t="s">
+    <row r="56" spans="1:7">
+      <c r="A56" t="s">
         <v>161</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B56" t="s">
         <v>112</v>
       </c>
-      <c r="C54">
-        <v>1</v>
-      </c>
-      <c r="D54">
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
         <v>37.840000000000003</v>
       </c>
-      <c r="E54">
-        <f>C54*D54</f>
+      <c r="E56">
+        <f>C56*D56</f>
         <v>37.840000000000003</v>
       </c>
-      <c r="F54" s="14" t="s">
+      <c r="F56" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
-      <c r="A55" t="s">
+    <row r="57" spans="1:7">
+      <c r="A57" t="s">
         <v>111</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B57" t="s">
         <v>113</v>
       </c>
-      <c r="C55">
+      <c r="C57">
         <v>5</v>
       </c>
-      <c r="D55">
+      <c r="D57">
         <v>29.98</v>
       </c>
-      <c r="E55">
-        <f t="shared" ref="E55:E56" si="7">C55*D55</f>
+      <c r="E57">
+        <f t="shared" ref="E57:E58" si="8">C57*D57</f>
         <v>149.9</v>
       </c>
-      <c r="F55" s="14" t="s">
+      <c r="F57" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
-      <c r="A56" t="s">
+    <row r="58" spans="1:7">
+      <c r="A58" t="s">
         <v>157</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B58" t="s">
         <v>113</v>
       </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="D56">
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
         <v>39.33</v>
       </c>
-      <c r="E56">
-        <f t="shared" si="7"/>
+      <c r="E58">
+        <f t="shared" si="8"/>
         <v>39.33</v>
       </c>
-      <c r="F56" s="14" t="s">
+      <c r="F58" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
-      <c r="D58" s="10" t="s">
+    <row r="60" spans="1:7">
+      <c r="D60" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E58" s="10">
-        <f>SUM(E2:E57)</f>
-        <v>10328.726499999997</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A59" s="12" t="s">
+      <c r="E60" s="10">
+        <f>SUM(E2:E59)</f>
+        <v>10371.736499999997</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A61" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="B59" s="12"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="13"/>
-    </row>
-    <row r="60" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A60" s="9" t="s">
+      <c r="B61" s="12"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="13"/>
+    </row>
+    <row r="62" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A62" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="C60">
-        <v>2</v>
-      </c>
-      <c r="D60">
+      <c r="C62">
+        <v>2</v>
+      </c>
+      <c r="D62">
         <v>33.270000000000003</v>
       </c>
-      <c r="E60">
-        <f>C60*D60</f>
+      <c r="E62">
+        <f>C62*D62</f>
         <v>66.540000000000006</v>
       </c>
-      <c r="F60" s="15" t="s">
+      <c r="F62" s="14" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A61" s="5"/>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" t="s">
+    <row r="63" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A63" s="5"/>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" t="s">
         <v>166</v>
       </c>
-      <c r="C62">
-        <v>2</v>
-      </c>
-      <c r="D62">
+      <c r="C64">
+        <v>2</v>
+      </c>
+      <c r="D64">
         <v>28.38</v>
       </c>
-      <c r="E62">
-        <f t="shared" ref="E61:E117" si="8">C62*D62</f>
+      <c r="E64">
+        <f t="shared" ref="E64:E119" si="9">C64*D64</f>
         <v>56.76</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" t="s">
-        <v>167</v>
-      </c>
-      <c r="C63">
-        <v>4</v>
-      </c>
-      <c r="D63">
-        <v>5.6</v>
-      </c>
-      <c r="E63">
-        <f t="shared" si="8"/>
-        <v>22.4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" t="s">
-        <v>168</v>
-      </c>
-      <c r="C64">
-        <v>2</v>
-      </c>
-      <c r="D64">
-        <v>7.59</v>
-      </c>
-      <c r="E64">
-        <f t="shared" si="8"/>
-        <v>15.18</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C65">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65">
-        <v>19.91</v>
+        <v>5.6</v>
       </c>
       <c r="E65">
-        <f t="shared" si="8"/>
-        <v>39.82</v>
+        <f t="shared" si="9"/>
+        <v>22.4</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C66">
         <v>2</v>
       </c>
       <c r="D66">
-        <v>25.04</v>
+        <v>7.59</v>
       </c>
       <c r="E66">
-        <f t="shared" si="8"/>
-        <v>50.08</v>
+        <f t="shared" si="9"/>
+        <v>15.18</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C67">
         <v>2</v>
       </c>
       <c r="D67">
-        <v>3.89</v>
+        <v>19.91</v>
       </c>
       <c r="E67">
-        <f t="shared" si="8"/>
-        <v>7.78</v>
+        <f t="shared" si="9"/>
+        <v>39.82</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C68">
         <v>2</v>
       </c>
       <c r="D68">
-        <v>3.89</v>
+        <v>25.04</v>
       </c>
       <c r="E68">
-        <f t="shared" si="8"/>
-        <v>7.78</v>
+        <f t="shared" si="9"/>
+        <v>50.08</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="C69">
         <v>2</v>
       </c>
       <c r="D69">
-        <v>4.6100000000000003</v>
+        <v>3.89</v>
       </c>
       <c r="E69">
-        <f t="shared" si="8"/>
-        <v>9.2200000000000006</v>
+        <f t="shared" si="9"/>
+        <v>7.78</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C70">
         <v>2</v>
       </c>
       <c r="D70">
-        <v>7.1</v>
+        <v>3.89</v>
       </c>
       <c r="E70">
-        <f t="shared" si="8"/>
-        <v>14.2</v>
+        <f t="shared" si="9"/>
+        <v>7.78</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="C71">
         <v>2</v>
       </c>
       <c r="D71">
-        <v>47.62</v>
+        <v>4.6100000000000003</v>
       </c>
       <c r="E71">
-        <f t="shared" si="8"/>
-        <v>95.24</v>
+        <f t="shared" si="9"/>
+        <v>9.2200000000000006</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C72">
         <v>2</v>
       </c>
       <c r="D72">
-        <v>5.48</v>
+        <v>7.1</v>
       </c>
       <c r="E72">
-        <f t="shared" si="8"/>
-        <v>10.96</v>
+        <f t="shared" si="9"/>
+        <v>14.2</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C73">
         <v>2</v>
       </c>
       <c r="D73">
-        <v>39.82</v>
+        <v>47.62</v>
       </c>
       <c r="E73">
-        <f t="shared" si="8"/>
-        <v>79.64</v>
+        <f t="shared" si="9"/>
+        <v>95.24</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C74">
         <v>2</v>
       </c>
       <c r="D74">
-        <v>14.31</v>
+        <v>5.48</v>
       </c>
       <c r="E74">
-        <f t="shared" si="8"/>
-        <v>28.62</v>
+        <f t="shared" si="9"/>
+        <v>10.96</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C75">
         <v>2</v>
       </c>
       <c r="D75">
-        <v>3.98</v>
+        <v>39.82</v>
       </c>
       <c r="E75">
-        <f t="shared" si="8"/>
-        <v>7.96</v>
+        <f t="shared" si="9"/>
+        <v>79.64</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C76">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76">
-        <v>3.49</v>
+        <v>14.31</v>
       </c>
       <c r="E76">
-        <f t="shared" si="8"/>
-        <v>13.96</v>
+        <f t="shared" si="9"/>
+        <v>28.62</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C77">
         <v>2</v>
       </c>
       <c r="D77">
-        <v>21.16</v>
+        <v>3.98</v>
       </c>
       <c r="E77">
-        <f t="shared" si="8"/>
-        <v>42.32</v>
+        <f t="shared" si="9"/>
+        <v>7.96</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C78">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D78">
-        <v>2.4900000000000002</v>
+        <v>3.49</v>
       </c>
       <c r="E78">
-        <f t="shared" si="8"/>
-        <v>19.920000000000002</v>
+        <f t="shared" si="9"/>
+        <v>13.96</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="s">
+        <v>180</v>
+      </c>
+      <c r="C79">
+        <v>2</v>
+      </c>
+      <c r="D79">
+        <v>21.16</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="9"/>
+        <v>42.32</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C80">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D80">
-        <v>12.57</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="E80">
-        <f t="shared" si="8"/>
-        <v>25.14</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" t="s">
-        <v>183</v>
-      </c>
-      <c r="C81">
-        <v>2</v>
-      </c>
-      <c r="D81">
-        <v>2.73</v>
-      </c>
-      <c r="E81">
-        <f t="shared" si="8"/>
-        <v>5.46</v>
+        <f t="shared" si="9"/>
+        <v>19.920000000000002</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C82">
         <v>2</v>
       </c>
       <c r="D82">
-        <v>3.98</v>
+        <v>12.57</v>
       </c>
       <c r="E82">
-        <f t="shared" si="8"/>
-        <v>7.96</v>
+        <f t="shared" si="9"/>
+        <v>25.14</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C83">
         <v>2</v>
       </c>
       <c r="D83">
-        <v>18.55</v>
+        <v>2.73</v>
       </c>
       <c r="E83">
-        <f t="shared" si="8"/>
-        <v>37.1</v>
+        <f t="shared" si="9"/>
+        <v>5.46</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C84">
         <v>2</v>
@@ -2614,28 +2643,28 @@
         <v>3.98</v>
       </c>
       <c r="E84">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7.96</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C85">
         <v>2</v>
       </c>
       <c r="D85">
-        <v>3.98</v>
+        <v>18.55</v>
       </c>
       <c r="E85">
-        <f t="shared" si="8"/>
-        <v>7.96</v>
+        <f t="shared" si="9"/>
+        <v>37.1</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C86">
         <v>2</v>
@@ -2644,391 +2673,391 @@
         <v>3.98</v>
       </c>
       <c r="E86">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7.96</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C87">
         <v>2</v>
       </c>
       <c r="D87">
-        <v>26.47</v>
+        <v>3.98</v>
       </c>
       <c r="E87">
-        <f t="shared" si="8"/>
-        <v>52.94</v>
+        <f t="shared" si="9"/>
+        <v>7.96</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C88">
         <v>2</v>
       </c>
       <c r="D88">
-        <v>6.6</v>
+        <v>3.98</v>
       </c>
       <c r="E88">
-        <f t="shared" si="8"/>
-        <v>13.2</v>
+        <f t="shared" si="9"/>
+        <v>7.96</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C89">
         <v>2</v>
       </c>
       <c r="D89">
-        <v>3.98</v>
+        <v>26.47</v>
       </c>
       <c r="E89">
-        <f t="shared" si="8"/>
-        <v>7.96</v>
+        <f t="shared" si="9"/>
+        <v>52.94</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C90">
         <v>2</v>
       </c>
       <c r="D90">
-        <v>5.98</v>
+        <v>6.6</v>
       </c>
       <c r="E90">
-        <f t="shared" si="8"/>
-        <v>11.96</v>
+        <f t="shared" si="9"/>
+        <v>13.2</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C91">
         <v>2</v>
       </c>
       <c r="D91">
-        <v>12.08</v>
+        <v>3.98</v>
       </c>
       <c r="E91">
-        <f t="shared" si="8"/>
-        <v>24.16</v>
+        <f t="shared" si="9"/>
+        <v>7.96</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C92">
         <v>2</v>
       </c>
       <c r="D92">
-        <v>3.98</v>
+        <v>5.98</v>
       </c>
       <c r="E92">
-        <f t="shared" si="8"/>
-        <v>7.96</v>
+        <f t="shared" si="9"/>
+        <v>11.96</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" t="s">
+        <v>192</v>
+      </c>
+      <c r="C93">
+        <v>2</v>
+      </c>
+      <c r="D93">
+        <v>12.08</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="9"/>
+        <v>24.16</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="C94">
         <v>2</v>
       </c>
       <c r="D94">
-        <v>13.19</v>
+        <v>3.98</v>
       </c>
       <c r="E94">
-        <f t="shared" si="8"/>
-        <v>26.38</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
-      <c r="A95" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C95">
-        <v>2</v>
-      </c>
-      <c r="D95">
-        <v>3.89</v>
-      </c>
-      <c r="E95">
-        <f t="shared" si="8"/>
-        <v>7.78</v>
+        <f t="shared" si="9"/>
+        <v>7.96</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
+        <v>202</v>
+      </c>
+      <c r="C96">
+        <v>2</v>
+      </c>
+      <c r="D96">
+        <v>13.19</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="9"/>
+        <v>26.38</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C97">
+        <v>2</v>
+      </c>
+      <c r="D97">
+        <v>3.89</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="9"/>
+        <v>7.78</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" t="s">
         <v>200</v>
       </c>
-      <c r="C96">
-        <v>2</v>
-      </c>
-      <c r="D96">
+      <c r="C98">
+        <v>2</v>
+      </c>
+      <c r="D98">
         <v>3.89</v>
       </c>
-      <c r="E96">
-        <f t="shared" si="8"/>
+      <c r="E98">
+        <f t="shared" si="9"/>
         <v>7.78</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
-      <c r="A97" t="s">
-        <v>201</v>
-      </c>
-      <c r="C97">
-        <v>2</v>
-      </c>
-      <c r="D97">
-        <v>4.7300000000000004</v>
-      </c>
-      <c r="E97">
-        <f t="shared" si="8"/>
-        <v>9.4600000000000009</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C99">
         <v>2</v>
       </c>
       <c r="D99">
-        <v>13.82</v>
+        <v>4.7300000000000004</v>
       </c>
       <c r="E99">
-        <f t="shared" si="8"/>
-        <v>27.64</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
-      <c r="A100" t="s">
-        <v>205</v>
-      </c>
-      <c r="C100">
-        <v>2</v>
-      </c>
-      <c r="D100">
-        <v>15.08</v>
-      </c>
-      <c r="E100">
-        <f t="shared" si="8"/>
-        <v>30.16</v>
+        <f t="shared" si="9"/>
+        <v>9.4600000000000009</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C101">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101">
-        <v>2.4900000000000002</v>
+        <v>13.82</v>
       </c>
       <c r="E101">
-        <f t="shared" si="8"/>
-        <v>9.9600000000000009</v>
+        <f t="shared" si="9"/>
+        <v>27.64</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C102">
+        <v>2</v>
+      </c>
+      <c r="D102">
+        <v>15.08</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="9"/>
+        <v>30.16</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" t="s">
+        <v>206</v>
+      </c>
+      <c r="C103">
         <v>4</v>
       </c>
-      <c r="D102">
-        <v>10.210000000000001</v>
-      </c>
-      <c r="E102">
-        <f t="shared" si="8"/>
-        <v>40.840000000000003</v>
-      </c>
-      <c r="G102" t="s">
-        <v>208</v>
+      <c r="D103">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="9"/>
+        <v>9.9600000000000009</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" t="s">
-        <v>169</v>
+        <v>207</v>
       </c>
       <c r="C104">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D104">
-        <v>19.91</v>
+        <v>10.210000000000001</v>
       </c>
       <c r="E104">
-        <f t="shared" si="8"/>
-        <v>19.91</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7">
-      <c r="A105" t="s">
-        <v>211</v>
-      </c>
-      <c r="C105">
-        <v>1</v>
-      </c>
-      <c r="D105">
-        <v>27.88</v>
-      </c>
-      <c r="E105">
-        <f t="shared" si="8"/>
-        <v>27.88</v>
+        <f t="shared" si="9"/>
+        <v>40.840000000000003</v>
+      </c>
+      <c r="G104" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" t="s">
-        <v>212</v>
+        <v>169</v>
       </c>
       <c r="C106">
         <v>1</v>
       </c>
       <c r="D106">
-        <v>10.46</v>
+        <v>19.91</v>
       </c>
       <c r="E106">
-        <f t="shared" si="8"/>
-        <v>10.46</v>
+        <f t="shared" si="9"/>
+        <v>19.91</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C107">
         <v>1</v>
       </c>
       <c r="D107">
-        <v>7.96</v>
+        <v>27.88</v>
       </c>
       <c r="E107">
-        <f t="shared" si="8"/>
-        <v>7.96</v>
+        <f t="shared" si="9"/>
+        <v>27.88</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" t="s">
+        <v>212</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="D108">
+        <v>10.46</v>
+      </c>
+      <c r="E108">
+        <f t="shared" si="9"/>
+        <v>10.46</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C109">
         <v>1</v>
       </c>
       <c r="D109">
-        <v>23.89</v>
+        <v>7.96</v>
       </c>
       <c r="E109">
-        <f t="shared" si="8"/>
-        <v>23.89</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7">
-      <c r="A110" t="s">
-        <v>215</v>
-      </c>
-      <c r="C110">
-        <v>1</v>
-      </c>
-      <c r="D110">
-        <v>14.69</v>
-      </c>
-      <c r="E110">
-        <f t="shared" si="8"/>
-        <v>14.69</v>
+        <f t="shared" si="9"/>
+        <v>7.96</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C111">
         <v>1</v>
       </c>
       <c r="D111">
-        <v>23.4</v>
+        <v>23.89</v>
       </c>
       <c r="E111">
-        <f t="shared" si="8"/>
-        <v>23.4</v>
+        <f t="shared" si="9"/>
+        <v>23.89</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C112">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D112">
-        <v>2.4900000000000002</v>
+        <v>14.69</v>
       </c>
       <c r="E112">
-        <f t="shared" si="8"/>
-        <v>14.940000000000001</v>
+        <f t="shared" si="9"/>
+        <v>14.69</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C113">
         <v>1</v>
       </c>
       <c r="D113">
-        <v>7.96</v>
+        <v>23.4</v>
       </c>
       <c r="E113">
-        <f t="shared" si="8"/>
-        <v>7.96</v>
+        <f t="shared" si="9"/>
+        <v>23.4</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C114">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D114">
-        <v>7.96</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="E114">
-        <f t="shared" si="8"/>
-        <v>7.96</v>
+        <f t="shared" si="9"/>
+        <v>14.940000000000001</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D115">
-        <v>11.45</v>
+        <v>7.96</v>
       </c>
       <c r="E115">
-        <f t="shared" si="8"/>
-        <v>22.9</v>
+        <f t="shared" si="9"/>
+        <v>7.96</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -3037,53 +3066,83 @@
         <v>7.96</v>
       </c>
       <c r="E116">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7.96</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
+        <v>220</v>
+      </c>
+      <c r="C117">
+        <v>2</v>
+      </c>
+      <c r="D117">
+        <v>11.45</v>
+      </c>
+      <c r="E117">
+        <f t="shared" si="9"/>
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" t="s">
+        <v>221</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+      <c r="D118">
+        <v>7.96</v>
+      </c>
+      <c r="E118">
+        <f t="shared" si="9"/>
+        <v>7.96</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" t="s">
         <v>210</v>
       </c>
-      <c r="C117">
+      <c r="C119">
         <v>12</v>
       </c>
-      <c r="D117">
+      <c r="D119">
         <v>6.16</v>
       </c>
-      <c r="E117">
-        <f t="shared" si="8"/>
+      <c r="E119">
+        <f t="shared" si="9"/>
         <v>73.92</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
-      <c r="D119" s="10" t="s">
+    <row r="121" spans="1:5">
+      <c r="D121" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E119" s="10">
-        <f>SUM(E60:E117)</f>
+      <c r="E121" s="10">
+        <f>SUM(E62:E119)</f>
         <v>1229.9300000000007</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
-      <c r="A121" t="s">
+    <row r="123" spans="1:5">
+      <c r="A123" t="s">
         <v>227</v>
       </c>
-      <c r="D121" s="11" t="s">
+      <c r="D123" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="E121" s="11">
-        <f>E119+E58</f>
-        <v>11558.656499999997</v>
+      <c r="E123" s="11">
+        <f>E121+E60</f>
+        <v>11601.666499999998</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F39" r:id="rId1" xr:uid="{4F3C3B35-7A0A-4640-9A3E-4C3DE420F6A8}"/>
-    <hyperlink ref="F60" r:id="rId2" xr:uid="{FCDF3519-B0C5-4FC2-9CE8-12CFD3BB3A5E}"/>
-    <hyperlink ref="F40" r:id="rId3" xr:uid="{E9C4CA0C-0902-4060-8EB6-28C40E4FD6DE}"/>
-    <hyperlink ref="F43" r:id="rId4" xr:uid="{9A2BDA5C-F86D-4763-A438-959576E68318}"/>
+    <hyperlink ref="F41" r:id="rId1" xr:uid="{4F3C3B35-7A0A-4640-9A3E-4C3DE420F6A8}"/>
+    <hyperlink ref="F62" r:id="rId2" xr:uid="{FCDF3519-B0C5-4FC2-9CE8-12CFD3BB3A5E}"/>
+    <hyperlink ref="F42" r:id="rId3" xr:uid="{E9C4CA0C-0902-4060-8EB6-28C40E4FD6DE}"/>
+    <hyperlink ref="F45" r:id="rId4" xr:uid="{9A2BDA5C-F86D-4763-A438-959576E68318}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
@@ -3121,10 +3180,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F1" s="13" t="s">
         <v>3</v>
@@ -3484,10 +3543,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F1" s="13" t="s">
         <v>3</v>
@@ -3859,7 +3918,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3882,10 +3941,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F1" s="13" t="s">
         <v>3</v>
@@ -4005,20 +4064,20 @@
         <v>245</v>
       </c>
       <c r="B12" t="s">
-        <v>260</v>
+        <v>282</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
       <c r="D12">
-        <v>11.68</v>
+        <v>15.27</v>
       </c>
       <c r="E12">
         <f>C12*D12</f>
-        <v>23.36</v>
+        <v>30.54</v>
       </c>
       <c r="F12" t="s">
-        <v>259</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -4032,7 +4091,7 @@
         <v>29.13</v>
       </c>
       <c r="E14">
-        <f t="shared" ref="E14:E21" si="0">C14*D14</f>
+        <f t="shared" ref="E14:E16" si="0">C14*D14</f>
         <v>29.13</v>
       </c>
       <c r="F14" t="s">
@@ -4131,7 +4190,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C21">
         <v>12</v>
@@ -4215,7 +4274,7 @@
       </c>
       <c r="E29" s="11">
         <f>SUM(E2:E27)</f>
-        <v>1911.0120000000004</v>
+        <v>1918.1920000000005</v>
       </c>
     </row>
   </sheetData>
@@ -4252,10 +4311,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F1" s="13" t="s">
         <v>3</v>
@@ -4280,7 +4339,7 @@
         <v>6.49</v>
       </c>
       <c r="F2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4298,7 +4357,7 @@
         <v>6.49</v>
       </c>
       <c r="F3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4350,7 +4409,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -4363,15 +4422,15 @@
         <v>11.98</v>
       </c>
       <c r="F10" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G10" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -4389,7 +4448,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -4404,7 +4463,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -4419,7 +4478,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -4434,7 +4493,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -4449,7 +4508,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -4464,7 +4523,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -4521,10 +4580,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F1" s="13" t="s">
         <v>3</v>

--- a/Assembly Guide/Bill_of_Materials.xlsx
+++ b/Assembly Guide/Bill_of_Materials.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A699A94-1F75-4368-8419-F5141E545B5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22080" windowHeight="10950"/>
   </bookViews>
   <sheets>
     <sheet name="Bimanual_Robot_Arm_TypeA" sheetId="1" r:id="rId1"/>
@@ -15,7 +14,7 @@
     <sheet name="One_Unit_of_Robotic_Wrist" sheetId="4" r:id="rId5"/>
     <sheet name="Alternative_actuators" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="314">
   <si>
     <t>https://www.dfrobot.com/product-121.html</t>
   </si>
@@ -311,9 +310,6 @@
     <t>RASK99003</t>
   </si>
   <si>
-    <t xml:space="preserve"> RASK7802</t>
-  </si>
-  <si>
     <t xml:space="preserve"> RADMR1</t>
   </si>
   <si>
@@ -344,9 +340,6 @@
     <t>205-8826</t>
   </si>
   <si>
-    <t>Note : SKF51110</t>
-  </si>
-  <si>
     <t>6806ZZ</t>
   </si>
   <si>
@@ -359,9 +352,6 @@
     <t>316 Stainless Steel Dowel Pin, 6 mm Diameter, 32 mm Long, Pkt of 5</t>
   </si>
   <si>
-    <t>obmp-motor-coupler.stp</t>
-  </si>
-  <si>
     <t>https://www.pcbway.com/rapid-prototyping/manufacture/?type=1</t>
   </si>
   <si>
@@ -395,9 +385,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>obmp-tube-coupler-25mm.stp</t>
-  </si>
-  <si>
     <t>SS316</t>
   </si>
   <si>
@@ -425,9 +412,6 @@
     <t>Needle-Roller Bearing, Open, for 5 mm Shaft Diameter</t>
   </si>
   <si>
-    <t>HK0508</t>
-  </si>
-  <si>
     <t>RF2181</t>
   </si>
   <si>
@@ -531,9 +515,6 @@
   </si>
   <si>
     <t>https://www.mcmaster.com/78155T62/</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> OBMP-BTP-1643</t>
   </si>
   <si>
     <t>16004ZZ</t>
@@ -744,9 +725,6 @@
     <t>Material spool for flexible fingers</t>
   </si>
   <si>
-    <t>A pair of OBMP arms (excluding forearm modules)</t>
-  </si>
-  <si>
     <t>OBMP-FAH-1810</t>
   </si>
   <si>
@@ -928,23 +906,172 @@
   </si>
   <si>
     <t>1265K44</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Product </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>umber/SKU</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A pair of OpenBMP arms (excluding forearm modules)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OBMP-BTP-1643</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OBMP-TUBE-COUPLER-25mm.stp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OBMP-MOTOR-COUPLER.stp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NRND - Alternative is Odrive S1 or Pro. Or Other VESCs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Forearm rotation actuator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Order 10 to replace the custom pulley system</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Can use AMT10E2-V or CUI AMT102-V instead for easier interfacing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffer chip required for AMT232B-V due to manufacture error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://discourse.odriverobotics.com/t/issues-with-amt232b-v-encoder/5944</t>
+  </si>
+  <si>
+    <t>ROS Ethernet to SPI interface for CANBUS. Alternatively can use other SBC or computation modules</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Structural materials</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Materials for waterjet cutting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Locking servos for elbow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>locking servos for shoulder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RASK7802</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>High strength cables for tendons and Bowden transmission</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Connector terminal for cables</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bowden set</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Structural support for torso</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Custom machine key for XB3 Harmonic drives</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Also known as HK0508</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Locking mechanism latch pins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Misc. pins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elbow connector pin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Torso box structural connector</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arm rotation connection. Note : SKF51110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Low cost loading bearing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Misc bearings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bolts and nuts of various size and length (WIP)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -977,21 +1104,21 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -999,7 +1126,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1080,7 +1207,7 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1104,13 +1231,14 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="4" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="4" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="20% - Accent1" xfId="4" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="3" builtinId="22"/>
-    <cellStyle name="Good" xfId="2" builtinId="26"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="20% - 輔色1" xfId="4" builtinId="30"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="2" builtinId="26"/>
+    <cellStyle name="計算方式" xfId="3" builtinId="22"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1387,52 +1515,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G123"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="50.28515625" customWidth="1"/>
     <col min="2" max="2" width="28.140625" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="39" customWidth="1"/>
+    <col min="6" max="6" width="70.140625" customWidth="1"/>
+    <col min="7" max="7" width="55.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>30</v>
+    <row r="1" spans="1:8">
+      <c r="A1" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>282</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F1" s="13" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="C2">
         <v>6</v>
@@ -1447,13 +1576,16 @@
       <c r="F2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -1469,7 +1601,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -1489,8 +1621,11 @@
       <c r="F5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G5" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -1510,8 +1645,11 @@
       <c r="F7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1531,8 +1669,11 @@
       <c r="F9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="17.25" customHeight="1">
+      <c r="G9" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="17.25" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -1553,7 +1694,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18.75" customHeight="1">
+    <row r="11" spans="1:8" ht="18.75" customHeight="1">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1574,7 +1715,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -1594,8 +1735,14 @@
       <c r="F12" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="G12" t="s">
+        <v>292</v>
+      </c>
+      <c r="H12" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1615,9 +1762,12 @@
       <c r="F14" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" thickBot="1"/>
-    <row r="16" spans="1:7" ht="27" thickBot="1">
+      <c r="G14" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="16.5" thickBot="1"/>
+    <row r="16" spans="1:8" ht="27" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>55</v>
       </c>
@@ -1634,8 +1784,11 @@
       <c r="F16" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="27" thickBot="1">
+      <c r="G16" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="27" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>53</v>
       </c>
@@ -1652,8 +1805,11 @@
       <c r="F17" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="27" thickBot="1">
+      <c r="G17" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="27" thickBot="1">
       <c r="A18" s="5" t="s">
         <v>52</v>
       </c>
@@ -1670,8 +1826,11 @@
       <c r="F18" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="27" thickBot="1">
+      <c r="G18" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="27" thickBot="1">
       <c r="A19" s="5" t="s">
         <v>54</v>
       </c>
@@ -1688,8 +1847,11 @@
       <c r="F19" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -1709,8 +1871,11 @@
       <c r="F21" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G21" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -1730,13 +1895,16 @@
       <c r="F23" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G23" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>70</v>
       </c>
       <c r="B25" t="s">
-        <v>83</v>
+        <v>299</v>
       </c>
       <c r="C25">
         <v>10</v>
@@ -1751,8 +1919,11 @@
       <c r="F25" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>72</v>
       </c>
@@ -1772,13 +1943,16 @@
       <c r="F26" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G26" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>75</v>
       </c>
       <c r="B27" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C27">
         <v>8</v>
@@ -1793,8 +1967,11 @@
       <c r="F27" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="G27" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>76</v>
       </c>
@@ -1814,8 +1991,11 @@
       <c r="F29" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="G29" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>77</v>
       </c>
@@ -1835,8 +2015,11 @@
       <c r="F30" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="G30" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>78</v>
       </c>
@@ -1856,13 +2039,16 @@
       <c r="F31" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="G31" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C33">
         <v>12</v>
@@ -1875,15 +2061,18 @@
         <v>64.679999999999993</v>
       </c>
       <c r="F33" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="13.5" customHeight="1">
+        <v>84</v>
+      </c>
+      <c r="G33" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="13.5" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C34">
         <v>2</v>
@@ -1896,15 +2085,18 @@
         <v>22.34</v>
       </c>
       <c r="F34" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>86</v>
+      </c>
+      <c r="G34" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B35" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -1917,18 +2109,18 @@
         <v>25.56</v>
       </c>
       <c r="F35" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G35" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B36" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C36">
         <v>2</v>
@@ -1941,15 +2133,18 @@
         <v>21.42</v>
       </c>
       <c r="F36" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>95</v>
+      </c>
+      <c r="G36" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="B37" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -1962,15 +2157,18 @@
         <v>19.11</v>
       </c>
       <c r="F37" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>276</v>
+      </c>
+      <c r="G37" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B38" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -1983,15 +2181,18 @@
         <v>23.9</v>
       </c>
       <c r="F38" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>279</v>
+      </c>
+      <c r="G38" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
+        <v>91</v>
+      </c>
+      <c r="B40" t="s">
         <v>92</v>
-      </c>
-      <c r="B40" t="s">
-        <v>93</v>
       </c>
       <c r="C40">
         <v>4</v>
@@ -2004,18 +2205,18 @@
         <v>39.880000000000003</v>
       </c>
       <c r="F40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G40" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B41" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C41">
         <v>3</v>
@@ -2028,15 +2229,18 @@
         <v>78.960000000000008</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="30">
+        <v>100</v>
+      </c>
+      <c r="G41" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="31.5">
       <c r="A42" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C42">
         <v>2</v>
@@ -2049,15 +2253,18 @@
         <v>10.78</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>157</v>
+      </c>
+      <c r="G42" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
         <v>60</v>
       </c>
       <c r="B44" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C44">
         <v>4</v>
@@ -2073,15 +2280,18 @@
         <v>59</v>
       </c>
       <c r="G44" t="s">
+        <v>311</v>
+      </c>
+      <c r="H44" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B45" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C45">
         <v>13</v>
@@ -2095,15 +2305,18 @@
         <v>19.487000000000002</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>190</v>
+      </c>
+      <c r="G45" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B46" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C46">
         <v>3</v>
@@ -2117,15 +2330,18 @@
         <v>4.8674999999999997</v>
       </c>
       <c r="F46" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>191</v>
+      </c>
+      <c r="G46" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="B47" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C47">
         <v>18</v>
@@ -2139,15 +2355,18 @@
         <v>22.482000000000003</v>
       </c>
       <c r="F47" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="15" customHeight="1">
+        <v>192</v>
+      </c>
+      <c r="G47" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="15" customHeight="1">
       <c r="A48" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="B48" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C48">
         <v>7</v>
@@ -2160,12 +2379,15 @@
         <v>168.14</v>
       </c>
       <c r="F48" t="s">
-        <v>199</v>
+        <v>193</v>
+      </c>
+      <c r="G48" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -2178,18 +2400,18 @@
         <v>25.99</v>
       </c>
       <c r="F49" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="G49" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B50" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C50">
         <v>2</v>
@@ -2202,7 +2424,10 @@
         <v>28.42</v>
       </c>
       <c r="F50" s="14" t="s">
-        <v>115</v>
+        <v>111</v>
+      </c>
+      <c r="G50" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2210,12 +2435,18 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>224</v>
+        <v>218</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="G52" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="15.75" customHeight="1">
       <c r="A54" s="12" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
@@ -2225,10 +2456,10 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>99</v>
+        <v>287</v>
       </c>
       <c r="B55" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C55">
         <v>9</v>
@@ -2241,15 +2472,15 @@
         <v>209.25</v>
       </c>
       <c r="F55" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B56" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -2262,15 +2493,15 @@
         <v>37.840000000000003</v>
       </c>
       <c r="F56" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>111</v>
+        <v>286</v>
       </c>
       <c r="B57" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C57">
         <v>5</v>
@@ -2283,15 +2514,15 @@
         <v>149.9</v>
       </c>
       <c r="F57" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>157</v>
+        <v>285</v>
       </c>
       <c r="B58" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -2304,21 +2535,21 @@
         <v>39.33</v>
       </c>
       <c r="F58" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="D60" s="10" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E60" s="10">
         <f>SUM(E2:E59)</f>
         <v>10371.736499999997</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="15.75" thickBot="1">
+    <row r="61" spans="1:7" ht="16.5" thickBot="1">
       <c r="A61" s="12" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B61" s="12"/>
       <c r="C61" s="12"/>
@@ -2326,9 +2557,9 @@
       <c r="E61" s="12"/>
       <c r="F61" s="13"/>
     </row>
-    <row r="62" spans="1:7" ht="15.75" thickBot="1">
+    <row r="62" spans="1:7" ht="16.5" thickBot="1">
       <c r="A62" s="9" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C62">
         <v>2</v>
@@ -2341,15 +2572,15 @@
         <v>66.540000000000006</v>
       </c>
       <c r="F62" s="14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="15.75" thickBot="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="16.5" thickBot="1">
       <c r="A63" s="5"/>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C64">
         <v>2</v>
@@ -2364,7 +2595,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C65">
         <v>4</v>
@@ -2379,7 +2610,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C66">
         <v>2</v>
@@ -2394,7 +2625,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C67">
         <v>2</v>
@@ -2409,7 +2640,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C68">
         <v>2</v>
@@ -2424,7 +2655,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C69">
         <v>2</v>
@@ -2439,7 +2670,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C70">
         <v>2</v>
@@ -2454,7 +2685,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C71">
         <v>2</v>
@@ -2469,7 +2700,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C72">
         <v>2</v>
@@ -2484,7 +2715,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C73">
         <v>2</v>
@@ -2499,7 +2730,7 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C74">
         <v>2</v>
@@ -2514,7 +2745,7 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C75">
         <v>2</v>
@@ -2529,7 +2760,7 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C76">
         <v>2</v>
@@ -2544,7 +2775,7 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C77">
         <v>2</v>
@@ -2559,7 +2790,7 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C78">
         <v>4</v>
@@ -2574,7 +2805,7 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C79">
         <v>2</v>
@@ -2589,7 +2820,7 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C80">
         <v>8</v>
@@ -2604,7 +2835,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C82">
         <v>2</v>
@@ -2619,7 +2850,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C83">
         <v>2</v>
@@ -2634,7 +2865,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C84">
         <v>2</v>
@@ -2649,7 +2880,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C85">
         <v>2</v>
@@ -2664,7 +2895,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C86">
         <v>2</v>
@@ -2679,7 +2910,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C87">
         <v>2</v>
@@ -2694,7 +2925,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C88">
         <v>2</v>
@@ -2709,7 +2940,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C89">
         <v>2</v>
@@ -2724,7 +2955,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C90">
         <v>2</v>
@@ -2739,7 +2970,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C91">
         <v>2</v>
@@ -2754,7 +2985,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C92">
         <v>2</v>
@@ -2769,7 +3000,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C93">
         <v>2</v>
@@ -2784,7 +3015,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C94">
         <v>2</v>
@@ -2799,7 +3030,7 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C96">
         <v>2</v>
@@ -2814,7 +3045,7 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C97">
         <v>2</v>
@@ -2829,7 +3060,7 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C98">
         <v>2</v>
@@ -2844,7 +3075,7 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C99">
         <v>2</v>
@@ -2859,7 +3090,7 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C101">
         <v>2</v>
@@ -2874,7 +3105,7 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C102">
         <v>2</v>
@@ -2889,7 +3120,7 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C103">
         <v>4</v>
@@ -2904,7 +3135,7 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C104">
         <v>4</v>
@@ -2917,12 +3148,12 @@
         <v>40.840000000000003</v>
       </c>
       <c r="G104" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -2937,7 +3168,7 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -2952,7 +3183,7 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -2967,7 +3198,7 @@
     </row>
     <row r="109" spans="1:7">
       <c r="A109" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -2982,7 +3213,7 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -2997,7 +3228,7 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -3012,7 +3243,7 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -3027,7 +3258,7 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C114">
         <v>6</v>
@@ -3042,7 +3273,7 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -3057,7 +3288,7 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -3072,7 +3303,7 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C117">
         <v>2</v>
@@ -3087,7 +3318,7 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -3102,7 +3333,7 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C119">
         <v>12</v>
@@ -3117,7 +3348,7 @@
     </row>
     <row r="121" spans="1:5">
       <c r="D121" s="10" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E121" s="10">
         <f>SUM(E62:E119)</f>
@@ -3126,10 +3357,10 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>227</v>
+        <v>284</v>
       </c>
       <c r="D123" s="11" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="E123" s="11">
         <f>E121+E60</f>
@@ -3139,10 +3370,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F41" r:id="rId1" xr:uid="{4F3C3B35-7A0A-4640-9A3E-4C3DE420F6A8}"/>
-    <hyperlink ref="F62" r:id="rId2" xr:uid="{FCDF3519-B0C5-4FC2-9CE8-12CFD3BB3A5E}"/>
-    <hyperlink ref="F42" r:id="rId3" xr:uid="{E9C4CA0C-0902-4060-8EB6-28C40E4FD6DE}"/>
-    <hyperlink ref="F45" r:id="rId4" xr:uid="{9A2BDA5C-F86D-4763-A438-959576E68318}"/>
+    <hyperlink ref="F41" r:id="rId1"/>
+    <hyperlink ref="F62" r:id="rId2"/>
+    <hyperlink ref="F42" r:id="rId3"/>
+    <hyperlink ref="F45" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
@@ -3150,14 +3381,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3849C705-ABE2-4337-9BA5-79FD476A7151}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="25.5703125" customWidth="1"/>
     <col min="2" max="2" width="22.7109375" customWidth="1"/>
@@ -3180,27 +3411,27 @@
         <v>2</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F1" s="13" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -3214,10 +3445,10 @@
         <v>62.64</v>
       </c>
       <c r="F2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H2">
         <v>0.87</v>
@@ -3225,10 +3456,10 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -3242,15 +3473,15 @@
         <v>121.8</v>
       </c>
       <c r="F3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B4" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -3264,15 +3495,15 @@
         <v>174</v>
       </c>
       <c r="F4" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -3286,15 +3517,15 @@
         <v>83.52</v>
       </c>
       <c r="F5" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B6" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -3308,15 +3539,15 @@
         <v>174</v>
       </c>
       <c r="F6" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B7" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -3330,15 +3561,15 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="F7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B8" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -3352,15 +3583,15 @@
         <v>34.799999999999997</v>
       </c>
       <c r="F8" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -3373,18 +3604,18 @@
         <v>57.87</v>
       </c>
       <c r="F10" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G10" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B11" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -3397,18 +3628,18 @@
         <v>35.14</v>
       </c>
       <c r="F11" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="G11" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B12" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -3421,18 +3652,18 @@
         <v>26.28</v>
       </c>
       <c r="F12" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="G12" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B13" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -3445,21 +3676,21 @@
         <v>101.76</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="G13" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="H13" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B15" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C15">
         <v>4</v>
@@ -3472,16 +3703,16 @@
         <v>29</v>
       </c>
       <c r="F15" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G15" t="s">
+        <v>149</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="I15" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="G15" t="s">
-        <v>154</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -3491,12 +3722,12 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="D19" s="11" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E19" s="11">
         <f>SUM(E2:E15)</f>
@@ -3504,11 +3735,12 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F13" r:id="rId1" xr:uid="{338F7E58-8FBC-4CA7-A95F-D45EFA41E09F}"/>
-    <hyperlink ref="F15" r:id="rId2" xr:uid="{894D37CE-30E2-4D4A-BEFA-998146DB88FB}"/>
-    <hyperlink ref="H15" r:id="rId3" xr:uid="{197CDDCF-783D-4E52-9183-7249577B205B}"/>
-    <hyperlink ref="I15" r:id="rId4" xr:uid="{3E68B7C1-9A5E-4EA9-A148-C306669E9FCD}"/>
+    <hyperlink ref="F13" r:id="rId1"/>
+    <hyperlink ref="F15" r:id="rId2"/>
+    <hyperlink ref="H15" r:id="rId3"/>
+    <hyperlink ref="I15" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
@@ -3516,14 +3748,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43E2CE5E-50FA-49C0-85B8-5EACCCF8153D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="31.140625" customWidth="1"/>
     <col min="2" max="2" width="25.7109375" customWidth="1"/>
@@ -3543,16 +3775,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F1" s="13" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3602,7 +3834,7 @@
         <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -3659,12 +3891,12 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -3677,12 +3909,12 @@
         <v>7.96</v>
       </c>
       <c r="F15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -3697,7 +3929,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -3712,7 +3944,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -3727,7 +3959,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -3742,7 +3974,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -3757,7 +3989,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="C21">
         <v>10</v>
@@ -3772,7 +4004,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -3787,7 +4019,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -3802,7 +4034,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -3817,7 +4049,7 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C25">
         <v>4</v>
@@ -3832,46 +4064,46 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3895,12 +4127,12 @@
         <v>56</v>
       </c>
       <c r="G31" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="33" spans="4:5">
       <c r="D33" s="11" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E33" s="11">
         <f>SUM(E3:E31)</f>
@@ -3908,20 +4140,21 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF8521F-B180-4694-8CFA-36AE987E363D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="40.42578125" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" customWidth="1"/>
@@ -3941,16 +4174,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F1" s="13" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -4000,7 +4233,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -4018,7 +4251,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C7">
         <v>24</v>
@@ -4032,12 +4265,12 @@
         <v>26.375999999999998</v>
       </c>
       <c r="F7" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C8">
         <v>12</v>
@@ -4051,20 +4284,20 @@
         <v>15.576000000000001</v>
       </c>
       <c r="F8" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B12" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -4077,12 +4310,12 @@
         <v>30.54</v>
       </c>
       <c r="F12" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -4095,12 +4328,12 @@
         <v>29.13</v>
       </c>
       <c r="F14" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -4115,7 +4348,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -4130,7 +4363,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -4145,7 +4378,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -4160,7 +4393,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -4175,7 +4408,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C20">
         <v>4</v>
@@ -4190,7 +4423,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="C21">
         <v>12</v>
@@ -4205,46 +4438,46 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -4270,7 +4503,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="D29" s="11" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E29" s="11">
         <f>SUM(E2:E27)</f>
@@ -4278,19 +4511,20 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5724B0F5-835D-4F51-A19D-6C02BF78C4FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="25.5703125" customWidth="1"/>
     <col min="2" max="2" width="22.7109375" customWidth="1"/>
@@ -4311,21 +4545,21 @@
         <v>2</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F1" s="13" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -4339,12 +4573,12 @@
         <v>6.49</v>
       </c>
       <c r="F2" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -4357,12 +4591,12 @@
         <v>6.49</v>
       </c>
       <c r="F3" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -4409,7 +4643,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -4422,15 +4656,15 @@
         <v>11.98</v>
       </c>
       <c r="F10" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="G10" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -4443,12 +4677,12 @@
         <v>19.420000000000002</v>
       </c>
       <c r="F12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -4463,7 +4697,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -4478,7 +4712,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -4493,7 +4727,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -4508,7 +4742,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -4523,7 +4757,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -4538,7 +4772,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="D20" s="11" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E20" s="11">
         <f>SUM(E2:E18)</f>
@@ -4546,20 +4780,21 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39DF6279-0BF4-45A4-B9AD-663598F6BE5E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" customWidth="1"/>
@@ -4580,16 +4815,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F1" s="13" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -4641,10 +4876,12 @@
         <v>41</v>
       </c>
       <c r="G5" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>